--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/05_Final Image.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/05_Final Image.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD4459C-A68F-4E03-A756-9EDC1DA38E87}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA0D008-FED5-4019-9504-95898C9020F7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Assets</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Cash</t>
-  </si>
-  <si>
-    <t>Retained Earnings</t>
   </si>
   <si>
     <t>Accounts Receivable</t>
@@ -140,16 +137,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -340,271 +330,263 @@
   </borders>
   <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="3" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -1094,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1107,39 +1089,36 @@
     <col min="4" max="4" width="1.375" customWidth="1"/>
     <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="10" max="10" width="1.375" customWidth="1"/>
-    <col min="12" max="12" width="2.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" customWidth="1"/>
-    <col min="15" max="15" width="13.625" customWidth="1"/>
-    <col min="16" max="16" width="1.375" customWidth="1"/>
-    <col min="18" max="18" width="4.625" customWidth="1"/>
+    <col min="10" max="10" width="2.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.875" customWidth="1"/>
+    <col min="13" max="13" width="13.625" customWidth="1"/>
+    <col min="14" max="14" width="1.375" customWidth="1"/>
+    <col min="16" max="16" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="14"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
+    <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="32"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
-    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14"/>
-      <c r="C2" s="15" t="s">
+    <row r="2" spans="1:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="32"/>
+      <c r="C2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1149,48 +1128,46 @@
       <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="5" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="16" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
     </row>
-    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
+    <row r="3" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="32"/>
       <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="12"/>
+      <c r="L3" s="9"/>
       <c r="M3" s="9" t="s">
         <v>12</v>
       </c>
@@ -1198,309 +1175,280 @@
       <c r="O3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="13">
+        <v>4000</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="13">
+        <v>4000</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="15"/>
     </row>
-    <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="5" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="19">
-        <v>4000</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="19">
-        <v>4000</v>
-      </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="21"/>
+      <c r="C5" s="21">
+        <v>3600</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="25">
+        <v>3600</v>
+      </c>
+      <c r="L5" s="19"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="22"/>
     </row>
-    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="6" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="28">
-        <v>3600</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="32">
-        <v>3600</v>
-      </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="29"/>
+      <c r="C6" s="24">
+        <v>-2800</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="27">
+        <v>2800</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="23"/>
     </row>
-    <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row r="7" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="31">
-        <v>-2800</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="35">
-        <v>2800</v>
-      </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="30"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="21">
+        <v>800</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="21">
+        <v>800</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="8" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="28">
-        <v>800</v>
-      </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="28">
-        <v>800</v>
-      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="24">
+        <v>1600</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="21">
+        <v>1600</v>
+      </c>
+      <c r="L8" s="19"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="24"/>
     </row>
-    <row r="8" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="9" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="31">
+      <c r="C9" s="21">
+        <v>-700</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="21">
+        <v>-700</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="28"/>
+    </row>
+    <row r="10" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="21">
+        <v>400</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="28">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="21">
+        <v>2100</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="21">
+        <v>2100</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="21"/>
+    </row>
+    <row r="12" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="28">
         <v>1600</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="28">
-        <v>1600</v>
-      </c>
-      <c r="N8" s="26"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="31"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="29">
+        <v>-1600</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="24"/>
     </row>
-    <row r="9" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="28">
-        <v>-700</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="28">
-        <v>-700</v>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="36"/>
-    </row>
-    <row r="10" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="28">
-        <v>400</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="36">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="28">
-        <v>2100</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="28">
-        <v>2100</v>
-      </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="28"/>
-    </row>
-    <row r="12" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="13" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="36">
-        <v>1600</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="37">
-        <v>-1600</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="31"/>
-    </row>
-    <row r="13" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="38">
+      <c r="C13" s="30">
         <f>SUM(C4:C12)</f>
         <v>5700</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="38">
+      <c r="D13" s="14"/>
+      <c r="E13" s="30">
         <f>SUM(E4:E12)</f>
         <v>2100</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="38">
+      <c r="F13" s="16"/>
+      <c r="G13" s="30">
         <f>SUM(G4:G12)</f>
         <v>500</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="38">
+      <c r="H13" s="16"/>
+      <c r="I13" s="30">
         <f>SUM(I4:I12)</f>
         <v>4000</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="38">
+      <c r="J13" s="17"/>
+      <c r="K13" s="30">
         <f>SUM(K4:K12)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="24"/>
-      <c r="M13" s="38">
+        <v>7300</v>
+      </c>
+      <c r="L13" s="19"/>
+      <c r="M13" s="30">
         <f>SUM(M4:M12)</f>
-        <v>7300</v>
-      </c>
-      <c r="N13" s="26"/>
-      <c r="O13" s="38">
+        <v>2800</v>
+      </c>
+      <c r="N13" s="20"/>
+      <c r="O13" s="30">
         <f>SUM(O4:O12)</f>
-        <v>2800</v>
-      </c>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="38">
-        <f>SUM(Q4:Q12)</f>
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="K1:O1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/05_Final Image.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/05_Final Image.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA0D008-FED5-4019-9504-95898C9020F7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5219281B-6315-47FB-BD49-EEAA182FC62A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1089,6 +1089,7 @@
     <col min="4" max="4" width="1.375" customWidth="1"/>
     <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="2.625" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
     <col min="10" max="10" width="2.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="1.875" customWidth="1"/>
     <col min="13" max="13" width="13.625" customWidth="1"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/05_Final Image.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/Section_05/05_Final Image.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5219281B-6315-47FB-BD49-EEAA182FC62A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D63B0A1-0CB2-4E2B-B74C-12496C3404D7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -320,7 +320,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF8DB4E2"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -566,10 +566,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="37" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -587,6 +583,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -1098,28 +1098,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="32"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="8"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
     </row>
     <row r="2" spans="1:15" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1129,7 +1129,7 @@
       <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="30" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="8"/>
@@ -1137,14 +1137,14 @@
         <v>5</v>
       </c>
       <c r="L2" s="6"/>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
     </row>
     <row r="3" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1388,17 +1388,17 @@
         <v>1600</v>
       </c>
       <c r="D12" s="14"/>
-      <c r="E12" s="29">
+      <c r="E12" s="24">
         <v>-1600</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="28"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="21"/>
+      <c r="I12" s="28"/>
       <c r="J12" s="17"/>
-      <c r="K12" s="21"/>
+      <c r="K12" s="28"/>
       <c r="L12" s="19"/>
-      <c r="M12" s="26"/>
+      <c r="M12" s="25"/>
       <c r="N12" s="20"/>
       <c r="O12" s="24"/>
     </row>
@@ -1407,37 +1407,37 @@
       <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="36">
         <f>SUM(C4:C12)</f>
         <v>5700</v>
       </c>
       <c r="D13" s="14"/>
-      <c r="E13" s="30">
+      <c r="E13" s="36">
         <f>SUM(E4:E12)</f>
         <v>2100</v>
       </c>
       <c r="F13" s="16"/>
-      <c r="G13" s="30">
+      <c r="G13" s="36">
         <f>SUM(G4:G12)</f>
         <v>500</v>
       </c>
       <c r="H13" s="16"/>
-      <c r="I13" s="30">
+      <c r="I13" s="36">
         <f>SUM(I4:I12)</f>
         <v>4000</v>
       </c>
       <c r="J13" s="17"/>
-      <c r="K13" s="30">
+      <c r="K13" s="36">
         <f>SUM(K4:K12)</f>
         <v>7300</v>
       </c>
       <c r="L13" s="19"/>
-      <c r="M13" s="30">
+      <c r="M13" s="36">
         <f>SUM(M4:M12)</f>
         <v>2800</v>
       </c>
       <c r="N13" s="20"/>
-      <c r="O13" s="30">
+      <c r="O13" s="36">
         <f>SUM(O4:O12)</f>
         <v>1200</v>
       </c>
